--- a/波尔/实验数据表格及数据处理.xlsx
+++ b/波尔/实验数据表格及数据处理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCode\Tex\基物实验\波尔\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1655E642-E5EC-4463-92F6-4511923E793F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62DFD16-29E9-4B74-ABDE-52543853C160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" activeTab="2" xr2:uid="{D222FD5C-B48E-4424-A183-D253B52E3E94}"/>
   </bookViews>
@@ -425,6 +425,22 @@
           <c:tx>
             <c:v>5档的稳态振幅</c:v>
           </c:tx>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-64EA-4D5C-98E8-390651E36D6A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>B3受迫振动!$C$9:$Q$9</c:f>
@@ -608,8 +624,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -707,7 +723,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -798,6 +814,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2088,8 +2105,8 @@
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="322268" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -2131,6 +2148,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2152,7 +2170,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2195,7 +2213,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -2290,8 +2308,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325602" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -2333,6 +2351,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2360,7 +2379,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2390,7 +2409,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -2490,8 +2509,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="199605" cy="183320"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -2533,6 +2552,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2592,7 +2612,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -2668,8 +2688,8 @@
       <xdr:rowOff>2941</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -2711,6 +2731,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2720,7 +2741,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2774,7 +2795,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -2844,8 +2865,8 @@
       <xdr:rowOff>9462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -2892,7 +2913,7 @@
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -2939,7 +2960,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -3015,8 +3036,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -3058,6 +3079,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3067,7 +3089,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3121,7 +3143,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -3191,8 +3213,8 @@
       <xdr:rowOff>159789</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文本框 4">
@@ -3239,7 +3261,7 @@
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -3286,7 +3308,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文本框 4">
@@ -3362,8 +3384,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文本框 5">
@@ -3410,7 +3432,7 @@
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -3469,7 +3491,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文本框 5">
@@ -3545,8 +3567,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="文本框 6">
@@ -3593,7 +3615,7 @@
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -3652,7 +3674,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="文本框 6">
@@ -3728,8 +3750,8 @@
       <xdr:rowOff>168968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="文本框 7">
@@ -3771,6 +3793,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3780,7 +3803,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3828,7 +3851,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="文本框 7">
@@ -3898,8 +3921,8 @@
       <xdr:rowOff>15770</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="文本框 8">
@@ -3941,6 +3964,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3950,7 +3974,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3998,7 +4022,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="文本框 8">
@@ -4068,8 +4092,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="302006" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="文本框 10">
@@ -4116,7 +4140,7 @@
                   <m:sSub>
                     <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -4175,7 +4199,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="文本框 10">
@@ -4251,8 +4275,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394246" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="文本框 11">
@@ -4294,6 +4318,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4360,7 +4385,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="文本框 11">
@@ -4436,8 +4461,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394246" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="文本框 12">
@@ -4479,6 +4504,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4545,7 +4571,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="文本框 12">
@@ -4621,8 +4647,8 @@
       <xdr:rowOff>1009</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394246" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="文本框 13">
@@ -4664,6 +4690,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4682,7 +4709,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4696,7 +4723,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4709,7 +4736,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4723,7 +4750,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4751,7 +4778,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="文本框 13">
@@ -4839,8 +4866,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394246" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="文本框 15">
@@ -4882,6 +4909,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4948,7 +4976,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="文本框 15">
@@ -5024,8 +5052,8 @@
       <xdr:rowOff>1009</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394246" cy="183312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="文本框 16">
@@ -5067,6 +5095,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5085,7 +5114,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5099,7 +5128,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5112,7 +5141,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5126,7 +5155,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5154,7 +5183,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="文本框 16">
@@ -5247,8 +5276,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="322268" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -5290,6 +5319,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5311,7 +5341,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5354,7 +5384,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1">
@@ -5449,8 +5479,8 @@
       <xdr:rowOff>175846</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256096" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -5492,6 +5522,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5524,7 +5555,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2">
@@ -5594,8 +5625,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="252570" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -5637,6 +5668,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5670,7 +5702,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文本框 3">
@@ -5747,8 +5779,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="322268" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文本框 4">
@@ -5790,6 +5822,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5811,7 +5844,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5854,7 +5887,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文本框 4">
@@ -5949,8 +5982,8 @@
       <xdr:rowOff>175846</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256096" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文本框 5">
@@ -5992,6 +6025,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6024,7 +6058,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文本框 5">
@@ -6094,8 +6128,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="252570" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="文本框 6">
@@ -6137,6 +6171,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6170,7 +6205,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="文本框 6">
@@ -6314,6 +6349,371 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08329</cdr:x>
+      <cdr:y>0.38201</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94539</cdr:x>
+      <cdr:y>0.38201</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="直接连接符 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4ECF25-B8B5-4046-8BA5-A846E07A8456}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="553184" y="1397248"/>
+          <a:ext cx="5725991" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40485</cdr:x>
+      <cdr:y>0.38201</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40485</cdr:x>
+      <cdr:y>0.82973</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="直接连接符 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB6385B-A0C6-43C0-8744-B0A4E02E0DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2688982" y="1397248"/>
+          <a:ext cx="0" cy="1637567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61107</cdr:x>
+      <cdr:y>0.38288</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61107</cdr:x>
+      <cdr:y>0.8306</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="直接连接符 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1C2F84-01B9-4B35-8EBC-D5C17C7DC758}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4058628" y="1400423"/>
+          <a:ext cx="0" cy="1637567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07998</cdr:x>
+      <cdr:y>0.59135</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95201</cdr:x>
+      <cdr:y>0.59135</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="10" name="直接连接符 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DE4229-B10F-43A1-9F6E-DECF8A02505F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="531204" y="2162911"/>
+          <a:ext cx="5791932" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34418</cdr:x>
+      <cdr:y>0.59035</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34418</cdr:x>
+      <cdr:y>0.83474</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="12" name="直接连接符 11">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E673688-1A65-433B-9E2D-D266E6188CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2286002" y="2159248"/>
+          <a:ext cx="0" cy="893884"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7209</cdr:x>
+      <cdr:y>0.59335</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7209</cdr:x>
+      <cdr:y>0.82672</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9E4D24-DC58-4A63-99BA-062E569F8552}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4788146" y="2170238"/>
+          <a:ext cx="0" cy="853586"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47711</cdr:x>
+      <cdr:y>0.22476</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.47711</cdr:x>
+      <cdr:y>0.82873</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="16" name="直接连接符 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0E444D-E020-4CB9-9DCE-275D62FF485D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3168896" y="822084"/>
+          <a:ext cx="0" cy="2209067"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.5091</cdr:x>
+      <cdr:y>0.4972</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5091</cdr:x>
+      <cdr:y>0.82672</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD2D137-C50F-4B5B-811B-84F71DE430C1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3381377" y="1818546"/>
+          <a:ext cx="0" cy="1205278"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7909,8 +8309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1DFEC9-3692-4D08-A06B-DDDC2A7FF1F6}">
   <dimension ref="B2:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/波尔/实验数据表格及数据处理.xlsx
+++ b/波尔/实验数据表格及数据处理.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCode\Tex\基物实验\波尔\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62DFD16-29E9-4B74-ABDE-52543853C160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D37D9-BADD-4871-9C48-A4909DA9597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" activeTab="2" xr2:uid="{D222FD5C-B48E-4424-A183-D253B52E3E94}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" activeTab="3" xr2:uid="{D222FD5C-B48E-4424-A183-D253B52E3E94}"/>
   </bookViews>
   <sheets>
     <sheet name="A1阻尼振动" sheetId="1" r:id="rId1"/>
     <sheet name="A3阻尼振动" sheetId="2" r:id="rId2"/>
     <sheet name="B3受迫振动" sheetId="3" r:id="rId3"/>
+    <sheet name="C1受迫振动的暂态过程" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>0档</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,6 +613,11 @@
                   <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>周期</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Td/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -707,6 +714,14 @@
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>稳态振幅</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>角度</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
@@ -1257,6 +1272,11 @@
                   <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>周期</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Td/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1381,6 +1401,14 @@
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>稳态相差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>角度</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
@@ -1539,7 +1567,1960 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>受迫振动系统瞬态过程振幅曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C1受迫振动的暂态过程'!$D$3:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.514000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.016000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.518000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.522000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.031999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.533999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.035999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.537999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.541999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.04399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.545999999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.047999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.052</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.056000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.558000000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.060000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.562000000000012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.064000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.566000000000017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.068000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52.570000000000022</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54.072000000000024</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.574000000000026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.076000000000029</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.578000000000031</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.080000000000034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.582000000000036</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.084000000000039</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64.586000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.088000000000036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.590000000000032</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69.092000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70.594000000000023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.096000000000018</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73.598000000000013</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75.100000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C1受迫振动的暂态过程'!$E$3:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E2E-4DF1-8251-619EA9273CF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1712775392"/>
+        <c:axId val="1712776640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1712775392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>t/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712776640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1712776640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>振幅</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>角度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712775392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>受迫振动系统瞬态过程振幅</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>理论和实际对比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实测振幅曲线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C1受迫振动的暂态过程'!$D$3:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.514000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.016000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.518000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.522000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.031999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.533999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.035999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.537999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.541999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.04399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.545999999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.047999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.052</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.056000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.558000000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.060000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.562000000000012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.064000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.566000000000017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.068000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52.570000000000022</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54.072000000000024</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.574000000000026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.076000000000029</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.578000000000031</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.080000000000034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.582000000000036</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.084000000000039</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64.586000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.088000000000036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.590000000000032</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69.092000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70.594000000000023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.096000000000018</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73.598000000000013</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75.100000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C1受迫振动的暂态过程'!$E$3:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07DE-4745-9134-B09472A019EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>理论振幅曲线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C1受迫振动的暂态过程'!$D$3:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.514000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.016000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.518000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.522000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.031999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.533999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.035999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.537999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.541999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.04399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.545999999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.047999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.052</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.056000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.558000000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.060000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.562000000000012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.064000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.566000000000017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.068000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52.570000000000022</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54.072000000000024</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.574000000000026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.076000000000029</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.578000000000031</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.080000000000034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.582000000000036</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.084000000000039</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64.586000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.088000000000036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.590000000000032</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69.092000000000027</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70.594000000000023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.096000000000018</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73.598000000000013</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75.100000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C1受迫振动的暂态过程'!$F$3:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>12.076766517228579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.958055251574752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.762206416648404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.595845741392466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.555044085625532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.726362265369936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.187792451036238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.009606376705278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.255119585267323</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.981380021019177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.239788458556347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.076657515477692</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.533715328484135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.64855937063615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.455065345291018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.983755603674467</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101.26213109283754</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.31497044412193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105.16459945489122</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106.83113389429533</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108.33269827371909</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109.68562296116835</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110.90462178332481</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>112.0029520467931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>112.99255871886211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113.8842043358289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>114.68758605171193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>115.41144110032505</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.06364181767246</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116.65128125808729</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>117.18075033523814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>117.65780732695585</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118.08764049978517</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>118.4749245343389</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>118.82387136511267</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>119.13827598767183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>119.42155773139015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>119.67679744660452</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>119.90677101061753</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>120.1139795169443</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120.30067647612934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>120.46889232395736</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120.6204565035992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>120.75701736184834</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>120.88006007583134</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>120.99092280515517</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>121.09081124515518</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>121.18081173951872</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>121.26190309489155</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>121.33496722595781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-07DE-4745-9134-B09472A019EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1712775392"/>
+        <c:axId val="1712776640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1712775392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>t/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712776640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1712776640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>振幅</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>角度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712775392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2095,6 +4076,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -6716,6 +9729,1551 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="296363" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FAA984-BC51-4C66-A339-7C1344C587A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="648433" y="351692"/>
+              <a:ext cx="296363" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>°</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FAA984-BC51-4C66-A339-7C1344C587A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="648433" y="351692"/>
+              <a:ext cx="296363" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256096" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8113673A-B7CF-4002-8FEF-FE7BBCE9629A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="648433" y="527538"/>
+              <a:ext cx="256096" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8113673A-B7CF-4002-8FEF-FE7BBCE9629A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="648433" y="527538"/>
+              <a:ext cx="256096" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13189</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2197</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184474" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBC36DC-486F-4903-858D-D47B2EE73DAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="661622" y="705582"/>
+              <a:ext cx="184474" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0"/>
+                <a:t>t</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>/</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑠</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="文本框 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBC36DC-486F-4903-858D-D47B2EE73DAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="661622" y="705582"/>
+              <a:ext cx="184474" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0"/>
+                <a:t>t</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>545524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>320386</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164031</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B39FF8-5C8F-491B-9F54-4C750CD222F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="686278" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文本框 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D989FD-2815-41D3-8E42-07875242687C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3230217" y="178077"/>
+              <a:ext cx="686278" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑠𝑡𝑖𝑚𝑎𝑡𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>°</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文本框 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D989FD-2815-41D3-8E42-07875242687C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3230217" y="178077"/>
+              <a:ext cx="686278" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑒𝑠𝑡𝑖𝑚𝑎𝑡𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>575642</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>350504</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>58993</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4B97BB-A1DE-40BA-8D5C-1AFDCD323BC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="296363" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF6F60F-529F-4904-8C0B-609E7C6999CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1295400" y="176213"/>
+              <a:ext cx="296363" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>°</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF6F60F-529F-4904-8C0B-609E7C6999CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1295400" y="176213"/>
+              <a:ext cx="296363" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256096" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A3A7BD-2D5C-48A9-B786-90A9A9719B84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1943100" y="175846"/>
+              <a:ext cx="256096" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A3A7BD-2D5C-48A9-B786-90A9A9719B84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1943100" y="175846"/>
+              <a:ext cx="256096" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="296363" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="文本框 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C5579-0289-4636-B174-FFF9C8B12BDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="647700" y="176213"/>
+              <a:ext cx="296363" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>°</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="文本框 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C5579-0289-4636-B174-FFF9C8B12BDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="647700" y="176213"/>
+              <a:ext cx="296363" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>°</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256096" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="文本框 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA369785-085E-445F-927A-E296D36E8D67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5181600" y="175846"/>
+              <a:ext cx="256096" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="文本框 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA369785-085E-445F-927A-E296D36E8D67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5181600" y="175846"/>
+              <a:ext cx="256096" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑠</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -8309,8 +12867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1DFEC9-3692-4D08-A06B-DDDC2A7FF1F6}">
   <dimension ref="B2:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8615,4 +13173,1555 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139E1404-EF83-4C52-BC52-F25E64046802}">
+  <dimension ref="B2:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>1.502</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.502</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <f>122*(1-EXP(-0.0694*D3))</f>
+        <v>12.076766517228579</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>1.502</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4+D3</f>
+        <v>3.004</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <f>122*(1-EXP(-0.0694*D4))</f>
+        <v>22.958055251574752</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>1.502</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D52" si="0">C5+D4</f>
+        <v>4.5060000000000002</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="1">122*(1-EXP(-0.0694*D5))</f>
+        <v>32.762206416648404</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>1.502</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.008</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>41.595845741392466</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>1.502</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.51</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>49.555044085625532</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>1.502</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0120000000000005</v>
+      </c>
+      <c r="E8">
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>56.726362265369936</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>1.502</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>10.514000000000001</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>63.187792451036238</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>1.502</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>12.016000000000002</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>69.009606376705278</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>1.502</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>13.518000000000002</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>74.255119585267323</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>1.502</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>15.020000000000003</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <f>122*(1-EXP(-0.0694*D12))</f>
+        <v>78.981380021019177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>1.502</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>16.522000000000002</v>
+      </c>
+      <c r="E13">
+        <v>84</v>
+      </c>
+      <c r="F13">
+        <f>122*(1-EXP(-0.0694*D13))</f>
+        <v>83.239788458556347</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>1.502</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>18.024000000000001</v>
+      </c>
+      <c r="E14">
+        <v>88</v>
+      </c>
+      <c r="F14">
+        <f>122*(1-EXP(-0.0694*D14))</f>
+        <v>87.076657515477692</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>1.502</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>19.526</v>
+      </c>
+      <c r="E15">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <f>122*(1-EXP(-0.0694*D15))</f>
+        <v>90.533715328484135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>1.502</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>21.027999999999999</v>
+      </c>
+      <c r="E16">
+        <v>94</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" si="2">122*(1-EXP(-0.0694*D16))</f>
+        <v>93.64855937063615</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>1.502</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>22.529999999999998</v>
+      </c>
+      <c r="E17">
+        <v>97</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>96.455065345291018</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>1.502</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>24.031999999999996</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>98.983755603674467</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>1.502</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>25.533999999999995</v>
+      </c>
+      <c r="E19">
+        <v>101</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>101.26213109283754</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>1.502</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>27.035999999999994</v>
+      </c>
+      <c r="E20">
+        <v>103</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>103.31497044412193</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>1.502</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>28.537999999999993</v>
+      </c>
+      <c r="E21">
+        <v>105</v>
+      </c>
+      <c r="F21">
+        <f>122*(1-EXP(-0.0694*D21))</f>
+        <v>105.16459945489122</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>1.502</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>30.039999999999992</v>
+      </c>
+      <c r="E22">
+        <v>107</v>
+      </c>
+      <c r="F22">
+        <f>122*(1-EXP(-0.0694*D22))</f>
+        <v>106.83113389429533</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>1.502</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>31.541999999999991</v>
+      </c>
+      <c r="E23">
+        <v>109</v>
+      </c>
+      <c r="F23">
+        <f>122*(1-EXP(-0.0694*D23))</f>
+        <v>108.33269827371909</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>1.502</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>33.04399999999999</v>
+      </c>
+      <c r="E24">
+        <v>110</v>
+      </c>
+      <c r="F24">
+        <f>122*(1-EXP(-0.0694*D24))</f>
+        <v>109.68562296116835</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <v>1.502</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>34.545999999999992</v>
+      </c>
+      <c r="E25">
+        <v>111</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F29" si="3">122*(1-EXP(-0.0694*D25))</f>
+        <v>110.90462178332481</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <v>1.502</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>36.047999999999995</v>
+      </c>
+      <c r="E26">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>112.0029520467931</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>1.502</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="E27">
+        <v>114</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>112.99255871886211</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <v>1.502</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>39.052</v>
+      </c>
+      <c r="E28">
+        <v>115</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>113.8842043358289</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C29">
+        <v>1.502</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>40.554000000000002</v>
+      </c>
+      <c r="E29">
+        <v>115</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>114.68758605171193</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C30">
+        <v>1.502</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>42.056000000000004</v>
+      </c>
+      <c r="E30">
+        <v>117</v>
+      </c>
+      <c r="F30">
+        <f>122*(1-EXP(-0.0694*D30))</f>
+        <v>115.41144110032505</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>1.502</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>43.558000000000007</v>
+      </c>
+      <c r="E31">
+        <v>117</v>
+      </c>
+      <c r="F31">
+        <f>122*(1-EXP(-0.0694*D31))</f>
+        <v>116.06364181767246</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <v>1.502</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>45.060000000000009</v>
+      </c>
+      <c r="E32">
+        <v>118</v>
+      </c>
+      <c r="F32">
+        <f>122*(1-EXP(-0.0694*D32))</f>
+        <v>116.65128125808729</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33">
+        <v>1.502</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>46.562000000000012</v>
+      </c>
+      <c r="E33">
+        <v>119</v>
+      </c>
+      <c r="F33">
+        <f>122*(1-EXP(-0.0694*D33))</f>
+        <v>117.18075033523814</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34">
+        <v>1.502</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>48.064000000000014</v>
+      </c>
+      <c r="E34">
+        <v>119</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F38" si="4">122*(1-EXP(-0.0694*D34))</f>
+        <v>117.65780732695585</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <v>1.502</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>49.566000000000017</v>
+      </c>
+      <c r="E35">
+        <v>119</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>118.08764049978517</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36">
+        <v>1.502</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>51.068000000000019</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>118.4749245343389</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C37">
+        <v>1.502</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>52.570000000000022</v>
+      </c>
+      <c r="E37">
+        <v>120</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>118.82387136511267</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C38">
+        <v>1.502</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>54.072000000000024</v>
+      </c>
+      <c r="E38">
+        <v>122</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>119.13827598767183</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C39">
+        <v>1.502</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>55.574000000000026</v>
+      </c>
+      <c r="E39">
+        <v>121</v>
+      </c>
+      <c r="F39">
+        <f>122*(1-EXP(-0.0694*D39))</f>
+        <v>119.42155773139015</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C40">
+        <v>1.502</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>57.076000000000029</v>
+      </c>
+      <c r="E40">
+        <v>121</v>
+      </c>
+      <c r="F40">
+        <f>122*(1-EXP(-0.0694*D40))</f>
+        <v>119.67679744660452</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C41">
+        <v>1.502</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>58.578000000000031</v>
+      </c>
+      <c r="E41">
+        <v>121</v>
+      </c>
+      <c r="F41">
+        <f>122*(1-EXP(-0.0694*D41))</f>
+        <v>119.90677101061753</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C42">
+        <v>1.502</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>60.080000000000034</v>
+      </c>
+      <c r="E42">
+        <v>121</v>
+      </c>
+      <c r="F42">
+        <f>122*(1-EXP(-0.0694*D42))</f>
+        <v>120.1139795169443</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C43">
+        <v>1.502</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>61.582000000000036</v>
+      </c>
+      <c r="E43">
+        <v>121</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F47" si="5">122*(1-EXP(-0.0694*D43))</f>
+        <v>120.30067647612934</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C44">
+        <v>1.502</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>63.084000000000039</v>
+      </c>
+      <c r="E44">
+        <v>122</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>120.46889232395736</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C45">
+        <v>1.502</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>64.586000000000041</v>
+      </c>
+      <c r="E45">
+        <v>122</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>120.6204565035992</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C46">
+        <v>1.502</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>66.088000000000036</v>
+      </c>
+      <c r="E46">
+        <v>122</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>120.75701736184834</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C47">
+        <v>1.502</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>67.590000000000032</v>
+      </c>
+      <c r="E47">
+        <v>122</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>120.88006007583134</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C48">
+        <v>1.502</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>69.092000000000027</v>
+      </c>
+      <c r="E48">
+        <v>122</v>
+      </c>
+      <c r="F48">
+        <f>122*(1-EXP(-0.0694*D48))</f>
+        <v>120.99092280515517</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C49">
+        <v>1.502</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>70.594000000000023</v>
+      </c>
+      <c r="E49">
+        <v>122</v>
+      </c>
+      <c r="F49">
+        <f>122*(1-EXP(-0.0694*D49))</f>
+        <v>121.09081124515518</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C50">
+        <v>1.502</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>72.096000000000018</v>
+      </c>
+      <c r="E50">
+        <v>123</v>
+      </c>
+      <c r="F50">
+        <f>122*(1-EXP(-0.0694*D50))</f>
+        <v>121.18081173951872</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C51">
+        <v>1.502</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>73.598000000000013</v>
+      </c>
+      <c r="E51">
+        <v>123</v>
+      </c>
+      <c r="F51">
+        <f>122*(1-EXP(-0.0694*D51))</f>
+        <v>121.26190309489155</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C52">
+        <v>1.502</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="E52">
+        <v>123</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52" si="6">122*(1-EXP(-0.0694*D52))</f>
+        <v>121.33496722595781</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9A942B-561E-411E-91E3-4ABC0B95A058}">
+  <dimension ref="B3:BQ52"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="4" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="5" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="6" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>1.502</v>
+      </c>
+      <c r="P6">
+        <f t="array" ref="P6:BQ6">TRANSPOSE(B3:B51)</f>
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>23</v>
+      </c>
+      <c r="R6">
+        <v>33</v>
+      </c>
+      <c r="S6">
+        <v>42</v>
+      </c>
+      <c r="T6">
+        <v>50</v>
+      </c>
+      <c r="U6">
+        <v>57</v>
+      </c>
+      <c r="V6">
+        <v>64</v>
+      </c>
+      <c r="W6">
+        <v>70</v>
+      </c>
+      <c r="X6">
+        <v>75</v>
+      </c>
+      <c r="Y6">
+        <v>80</v>
+      </c>
+      <c r="Z6">
+        <v>84</v>
+      </c>
+      <c r="AA6">
+        <v>88</v>
+      </c>
+      <c r="AB6">
+        <v>91</v>
+      </c>
+      <c r="AC6">
+        <v>94</v>
+      </c>
+      <c r="AD6">
+        <v>97</v>
+      </c>
+      <c r="AE6">
+        <v>100</v>
+      </c>
+      <c r="AF6">
+        <v>101</v>
+      </c>
+      <c r="AG6">
+        <v>103</v>
+      </c>
+      <c r="AH6">
+        <v>105</v>
+      </c>
+      <c r="AI6">
+        <v>107</v>
+      </c>
+      <c r="AJ6">
+        <v>109</v>
+      </c>
+      <c r="AK6">
+        <v>110</v>
+      </c>
+      <c r="AL6">
+        <v>111</v>
+      </c>
+      <c r="AM6">
+        <v>113</v>
+      </c>
+      <c r="AN6">
+        <v>114</v>
+      </c>
+      <c r="AO6">
+        <v>115</v>
+      </c>
+      <c r="AP6">
+        <v>115</v>
+      </c>
+      <c r="AQ6">
+        <v>117</v>
+      </c>
+      <c r="AR6">
+        <v>117</v>
+      </c>
+      <c r="AS6">
+        <v>118</v>
+      </c>
+      <c r="AT6">
+        <v>119</v>
+      </c>
+      <c r="AU6">
+        <v>119</v>
+      </c>
+      <c r="AV6">
+        <v>119</v>
+      </c>
+      <c r="AW6">
+        <v>120</v>
+      </c>
+      <c r="AX6">
+        <v>120</v>
+      </c>
+      <c r="AY6">
+        <v>122</v>
+      </c>
+      <c r="AZ6">
+        <v>121</v>
+      </c>
+      <c r="BA6">
+        <v>121</v>
+      </c>
+      <c r="BB6">
+        <v>121</v>
+      </c>
+      <c r="BC6">
+        <v>121</v>
+      </c>
+      <c r="BD6">
+        <v>121</v>
+      </c>
+      <c r="BE6">
+        <v>122</v>
+      </c>
+      <c r="BF6">
+        <v>122</v>
+      </c>
+      <c r="BG6">
+        <v>122</v>
+      </c>
+      <c r="BH6">
+        <v>122</v>
+      </c>
+      <c r="BI6">
+        <v>122</v>
+      </c>
+      <c r="BJ6">
+        <v>122</v>
+      </c>
+      <c r="BK6">
+        <v>123</v>
+      </c>
+      <c r="BL6">
+        <v>123</v>
+      </c>
+      <c r="BM6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BN6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BO6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BP6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BQ6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="8" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>57</v>
+      </c>
+      <c r="I8">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="9" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="10" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="11" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>1.502</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>23</v>
+      </c>
+      <c r="R11">
+        <v>33</v>
+      </c>
+      <c r="S11">
+        <v>42</v>
+      </c>
+      <c r="T11">
+        <v>50</v>
+      </c>
+      <c r="U11">
+        <v>57</v>
+      </c>
+      <c r="V11">
+        <v>64</v>
+      </c>
+      <c r="W11">
+        <v>70</v>
+      </c>
+      <c r="X11">
+        <v>75</v>
+      </c>
+      <c r="Y11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>1.502</v>
+      </c>
+      <c r="P12">
+        <v>84</v>
+      </c>
+      <c r="Q12">
+        <v>88</v>
+      </c>
+      <c r="R12">
+        <v>91</v>
+      </c>
+      <c r="S12">
+        <v>94</v>
+      </c>
+      <c r="T12">
+        <v>97</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12">
+        <v>101</v>
+      </c>
+      <c r="W12">
+        <v>103</v>
+      </c>
+      <c r="X12">
+        <v>105</v>
+      </c>
+      <c r="Y12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="I13">
+        <v>1.502</v>
+      </c>
+      <c r="P13">
+        <v>109</v>
+      </c>
+      <c r="Q13">
+        <v>110</v>
+      </c>
+      <c r="R13">
+        <v>111</v>
+      </c>
+      <c r="S13">
+        <v>113</v>
+      </c>
+      <c r="T13">
+        <v>114</v>
+      </c>
+      <c r="U13">
+        <v>115</v>
+      </c>
+      <c r="V13">
+        <v>115</v>
+      </c>
+      <c r="W13">
+        <v>117</v>
+      </c>
+      <c r="X13">
+        <v>117</v>
+      </c>
+      <c r="Y13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>1.502</v>
+      </c>
+      <c r="P14">
+        <v>119</v>
+      </c>
+      <c r="Q14">
+        <v>119</v>
+      </c>
+      <c r="R14">
+        <v>119</v>
+      </c>
+      <c r="S14">
+        <v>120</v>
+      </c>
+      <c r="T14">
+        <v>120</v>
+      </c>
+      <c r="U14">
+        <v>122</v>
+      </c>
+      <c r="V14">
+        <v>121</v>
+      </c>
+      <c r="W14">
+        <v>121</v>
+      </c>
+      <c r="X14">
+        <v>121</v>
+      </c>
+      <c r="Y14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>91</v>
+      </c>
+      <c r="I15">
+        <v>1.502</v>
+      </c>
+      <c r="P15">
+        <v>121</v>
+      </c>
+      <c r="Q15">
+        <v>122</v>
+      </c>
+      <c r="R15">
+        <v>122</v>
+      </c>
+      <c r="S15">
+        <v>122</v>
+      </c>
+      <c r="T15">
+        <v>122</v>
+      </c>
+      <c r="U15">
+        <v>122</v>
+      </c>
+      <c r="V15">
+        <v>122</v>
+      </c>
+      <c r="W15">
+        <v>123</v>
+      </c>
+      <c r="X15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>94</v>
+      </c>
+      <c r="I16">
+        <v>1.502</v>
+      </c>
+      <c r="P16">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>97</v>
+      </c>
+      <c r="I17">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>101</v>
+      </c>
+      <c r="I19">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>103</v>
+      </c>
+      <c r="I20">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>105</v>
+      </c>
+      <c r="I21">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>107</v>
+      </c>
+      <c r="I22">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>109</v>
+      </c>
+      <c r="I23">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>110</v>
+      </c>
+      <c r="I24">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>111</v>
+      </c>
+      <c r="I25">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>113</v>
+      </c>
+      <c r="I26">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>114</v>
+      </c>
+      <c r="I27">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>115</v>
+      </c>
+      <c r="I28">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>115</v>
+      </c>
+      <c r="I29">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>117</v>
+      </c>
+      <c r="I30">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>117</v>
+      </c>
+      <c r="I31">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>118</v>
+      </c>
+      <c r="I32">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>119</v>
+      </c>
+      <c r="I33">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>119</v>
+      </c>
+      <c r="I34">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>119</v>
+      </c>
+      <c r="I35">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>120</v>
+      </c>
+      <c r="I36">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>120</v>
+      </c>
+      <c r="I37">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>122</v>
+      </c>
+      <c r="I38">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>121</v>
+      </c>
+      <c r="I39">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>121</v>
+      </c>
+      <c r="I40">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>121</v>
+      </c>
+      <c r="I41">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>121</v>
+      </c>
+      <c r="I42">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>121</v>
+      </c>
+      <c r="I43">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <v>122</v>
+      </c>
+      <c r="I44">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>122</v>
+      </c>
+      <c r="I45">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>122</v>
+      </c>
+      <c r="I46">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>122</v>
+      </c>
+      <c r="I47">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>122</v>
+      </c>
+      <c r="I48">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>122</v>
+      </c>
+      <c r="I49">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>123</v>
+      </c>
+      <c r="I50">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>123</v>
+      </c>
+      <c r="I51">
+        <v>1.502</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <v>123</v>
+      </c>
+      <c r="I52">
+        <v>1.502</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>